--- a/Doc/table/道具表.xlsx
+++ b/Doc/table/道具表.xlsx
@@ -390,14 +390,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -418,6 +418,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -425,6 +428,9 @@
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
